--- a/output/semivariogram-models-anom.xlsx
+++ b/output/semivariogram-models-anom.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,26 +407,536 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>0.4201</v>
+      </c>
+      <c r="D2">
+        <v>0.7192</v>
+      </c>
+      <c r="E2">
+        <v>0.18</v>
+      </c>
+      <c r="F2">
+        <v>0.5841212458286985</v>
+      </c>
+      <c r="G2">
+        <v>671.2293</v>
+      </c>
+      <c r="H2">
+        <v>0.5143151835915111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>dry_16:17</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>0.5717</v>
+      </c>
+      <c r="D3">
+        <v>1.312</v>
+      </c>
+      <c r="E3">
+        <v>0.65</v>
+      </c>
+      <c r="F3">
+        <v>0.4357469512195122</v>
+      </c>
+      <c r="G3">
+        <v>2682.7857</v>
+      </c>
+      <c r="H3">
+        <v>0.8685819599933342</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>dry_17:18</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Sph</t>
         </is>
       </c>
-      <c r="C2">
-        <v>0.4816</v>
-      </c>
-      <c r="D2">
-        <v>0.7074</v>
-      </c>
-      <c r="E2">
-        <v>0.16</v>
-      </c>
-      <c r="F2">
-        <v>0.6808029403449251</v>
-      </c>
-      <c r="G2">
-        <v>237.5804</v>
-      </c>
-      <c r="H2">
-        <v>0.8281464901628807</v>
+      <c r="C4">
+        <v>0.5296999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.7824</v>
+      </c>
+      <c r="E4">
+        <v>0.28</v>
+      </c>
+      <c r="F4">
+        <v>0.6770194274028629</v>
+      </c>
+      <c r="G4">
+        <v>826.6949</v>
+      </c>
+      <c r="H4">
+        <v>0.5862291635197546</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>dry_18:19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>0.7359</v>
+      </c>
+      <c r="D5">
+        <v>1.2179</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+      <c r="F5">
+        <v>0.6042368010509894</v>
+      </c>
+      <c r="G5">
+        <v>3953.7143</v>
+      </c>
+      <c r="H5">
+        <v>0.5324243556929728</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dry_19:20</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>0.6345</v>
+      </c>
+      <c r="D6">
+        <v>0.949</v>
+      </c>
+      <c r="E6">
+        <v>0.37</v>
+      </c>
+      <c r="F6">
+        <v>0.6685985247629083</v>
+      </c>
+      <c r="G6">
+        <v>2892.9511</v>
+      </c>
+      <c r="H6">
+        <v>0.6498907837080758</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dry_20:21</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>0.5325</v>
+      </c>
+      <c r="D7">
+        <v>1.1725</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+      <c r="F7">
+        <v>0.4541577825159914</v>
+      </c>
+      <c r="G7">
+        <v>2854.3315</v>
+      </c>
+      <c r="H7">
+        <v>0.5677287392579485</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>dry_21:22</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>0.4198</v>
+      </c>
+      <c r="D8">
+        <v>1.2095</v>
+      </c>
+      <c r="E8">
+        <v>0.32</v>
+      </c>
+      <c r="F8">
+        <v>0.3470855725506408</v>
+      </c>
+      <c r="G8">
+        <v>2372.6765</v>
+      </c>
+      <c r="H8">
+        <v>0.7530131071427676</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>dry_22:23</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>0.4935</v>
+      </c>
+      <c r="D9">
+        <v>0.9676</v>
+      </c>
+      <c r="E9">
+        <v>0.39</v>
+      </c>
+      <c r="F9">
+        <v>0.5100248036378668</v>
+      </c>
+      <c r="G9">
+        <v>696.4158</v>
+      </c>
+      <c r="H9">
+        <v>0.6965279392001142</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>dry_23:24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>0.618</v>
+      </c>
+      <c r="D10">
+        <v>0.953</v>
+      </c>
+      <c r="E10">
+        <v>0.21</v>
+      </c>
+      <c r="F10">
+        <v>0.6484784889821616</v>
+      </c>
+      <c r="G10">
+        <v>350.7247</v>
+      </c>
+      <c r="H10">
+        <v>0.5661927705451815</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>rainy_15:16</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.7481</v>
+      </c>
+      <c r="E11">
+        <v>0.14</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>3870.2421</v>
+      </c>
+      <c r="H11">
+        <v>0.03971893705763794</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>rainy_16:17</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>0.3615</v>
+      </c>
+      <c r="D12">
+        <v>0.9399</v>
+      </c>
+      <c r="E12">
+        <v>0.44</v>
+      </c>
+      <c r="F12">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="G12">
+        <v>2278.2576</v>
+      </c>
+      <c r="H12">
+        <v>0.5804542592630626</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>rainy_17:18</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>0.462</v>
+      </c>
+      <c r="D13">
+        <v>1.2779</v>
+      </c>
+      <c r="E13">
+        <v>1.02</v>
+      </c>
+      <c r="F13">
+        <v>0.3615306362000156</v>
+      </c>
+      <c r="G13">
+        <v>2340.6571</v>
+      </c>
+      <c r="H13">
+        <v>0.758031164971783</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>rainy_18:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>0.427</v>
+      </c>
+      <c r="D14">
+        <v>0.8515</v>
+      </c>
+      <c r="E14">
+        <v>0.84</v>
+      </c>
+      <c r="F14">
+        <v>0.5014679976512038</v>
+      </c>
+      <c r="G14">
+        <v>1141.5604</v>
+      </c>
+      <c r="H14">
+        <v>0.692258588932832</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>rainy_19:20</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>0.5911</v>
+      </c>
+      <c r="D15">
+        <v>0.9789</v>
+      </c>
+      <c r="E15">
+        <v>1.82</v>
+      </c>
+      <c r="F15">
+        <v>0.6038410460721217</v>
+      </c>
+      <c r="G15">
+        <v>2931.1247</v>
+      </c>
+      <c r="H15">
+        <v>0.404712852397403</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>rainy_20:21</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>0.6715</v>
+      </c>
+      <c r="D16">
+        <v>1.9087</v>
+      </c>
+      <c r="E16">
+        <v>1.19</v>
+      </c>
+      <c r="F16">
+        <v>0.3518101325509509</v>
+      </c>
+      <c r="G16">
+        <v>1069.4217</v>
+      </c>
+      <c r="H16">
+        <v>0.8422168354433949</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>rainy_21:22</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>0.5415</v>
+      </c>
+      <c r="D17">
+        <v>1.7934</v>
+      </c>
+      <c r="E17">
+        <v>1.43</v>
+      </c>
+      <c r="F17">
+        <v>0.3019404483104717</v>
+      </c>
+      <c r="G17">
+        <v>4030.9354</v>
+      </c>
+      <c r="H17">
+        <v>0.8491074193908827</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>rainy_22:23</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>0.3121</v>
+      </c>
+      <c r="D18">
+        <v>1.3047</v>
+      </c>
+      <c r="E18">
+        <v>0.82</v>
+      </c>
+      <c r="F18">
+        <v>0.2392120794052273</v>
+      </c>
+      <c r="G18">
+        <v>3420.8977</v>
+      </c>
+      <c r="H18">
+        <v>0.654556184151359</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>rainy_23:24</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>0.3934</v>
+      </c>
+      <c r="D19">
+        <v>1.4829</v>
+      </c>
+      <c r="E19">
+        <v>0.95</v>
+      </c>
+      <c r="F19">
+        <v>0.2652909838829321</v>
+      </c>
+      <c r="G19">
+        <v>11071.3918</v>
+      </c>
+      <c r="H19">
+        <v>0.6285625052653443</v>
       </c>
     </row>
   </sheetData>
